--- a/resources/鹤瑞仙交割单.xlsx
+++ b/resources/鹤瑞仙交割单.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="460" windowWidth="25520" windowHeight="16740" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="880" yWindow="460" windowWidth="27920" windowHeight="16740" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="交割单" sheetId="1" r:id="rId1"/>
     <sheet name="时间轴" sheetId="3" r:id="rId2"/>
     <sheet name="个股盈亏" sheetId="5" r:id="rId3"/>
-    <sheet name="k线" sheetId="4" r:id="rId4"/>
+    <sheet name="个股详细" sheetId="6" r:id="rId4"/>
+    <sheet name="k线" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1252" uniqueCount="144">
   <si>
     <t>成交日期</t>
     <rPh sb="0" eb="1">
@@ -700,6 +701,40 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>feng huang guagn xue</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持股数</t>
+    <rPh sb="0" eb="1">
+      <t>chi gu shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平仓盈亏</t>
+    <rPh sb="0" eb="1">
+      <t>ping cang</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ying kui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>持股成本</t>
+    <rPh sb="0" eb="1">
+      <t>chi gu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>cheng ben</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每股成本</t>
+    <rPh sb="0" eb="1">
+      <t>mei gu</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -800,7 +835,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -835,6 +870,82 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -863,7 +974,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -924,6 +1035,9 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -939,7 +1053,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="25">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1243,7 +1377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H105"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
@@ -7392,8 +7526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BF34"/>
   <sheetViews>
-    <sheetView topLeftCell="AM1" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView topLeftCell="AL1" workbookViewId="0">
+      <selection activeCell="AT1" sqref="AT1:AX18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7412,83 +7546,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="52" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52" t="s">
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52" t="s">
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52" t="s">
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="52" t="s">
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="55"/>
+      <c r="Z1" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="52"/>
-      <c r="AE1" s="52" t="s">
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="55"/>
+      <c r="AE1" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="52"/>
-      <c r="AJ1" s="52" t="s">
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="55"/>
+      <c r="AJ1" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="52"/>
-      <c r="AO1" s="52" t="s">
+      <c r="AK1" s="55"/>
+      <c r="AL1" s="55"/>
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="55"/>
+      <c r="AO1" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="AP1" s="52"/>
-      <c r="AQ1" s="52"/>
-      <c r="AR1" s="52"/>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="52" t="s">
+      <c r="AP1" s="55"/>
+      <c r="AQ1" s="55"/>
+      <c r="AR1" s="55"/>
+      <c r="AS1" s="55"/>
+      <c r="AT1" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="AU1" s="52"/>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="52"/>
-      <c r="AY1" s="52" t="s">
+      <c r="AU1" s="55"/>
+      <c r="AV1" s="55"/>
+      <c r="AW1" s="55"/>
+      <c r="AX1" s="55"/>
+      <c r="AY1" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="AZ1" s="52"/>
-      <c r="BA1" s="52"/>
-      <c r="BB1" s="52"/>
-      <c r="BC1" s="52"/>
+      <c r="AZ1" s="55"/>
+      <c r="BA1" s="55"/>
+      <c r="BB1" s="55"/>
+      <c r="BC1" s="55"/>
     </row>
     <row r="2" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
@@ -9634,9 +9768,1312 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="13" style="5" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="5"/>
+    <col min="9" max="9" width="11.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="15" max="15" width="12.5" customWidth="1"/>
+    <col min="17" max="17" width="12.6640625" customWidth="1"/>
+    <col min="18" max="19" width="10.83203125" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A1" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="65"/>
+      <c r="K1" s="63" t="s">
+        <v>97</v>
+      </c>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="60"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="G2" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="H2" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="I2" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="K2" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q2" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="R2" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="S2" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="T2" s="54"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="62">
+        <v>20120927</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="33">
+        <v>14.65</v>
+      </c>
+      <c r="D3" s="34">
+        <v>20400</v>
+      </c>
+      <c r="E3" s="31">
+        <v>-299108.33</v>
+      </c>
+      <c r="F3" s="34">
+        <f>D3</f>
+        <v>20400</v>
+      </c>
+      <c r="G3" s="40">
+        <f>-E3</f>
+        <v>299108.33</v>
+      </c>
+      <c r="H3" s="40">
+        <f>G3/F3</f>
+        <v>14.662173039215688</v>
+      </c>
+      <c r="I3" s="70"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="62" t="s">
+        <v>89</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="M3" s="33">
+        <v>7.49</v>
+      </c>
+      <c r="N3" s="34">
+        <v>40000</v>
+      </c>
+      <c r="O3" s="31">
+        <v>-299863.67999999999</v>
+      </c>
+      <c r="P3" s="34">
+        <f>N3</f>
+        <v>40000</v>
+      </c>
+      <c r="Q3" s="40">
+        <f>-O3</f>
+        <v>299863.67999999999</v>
+      </c>
+      <c r="R3" s="40">
+        <f>Q3/P3</f>
+        <v>7.4965919999999997</v>
+      </c>
+      <c r="S3" s="70"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="33">
+        <v>14.62</v>
+      </c>
+      <c r="D4" s="34">
+        <v>13600</v>
+      </c>
+      <c r="E4" s="31">
+        <v>-198999.23</v>
+      </c>
+      <c r="F4" s="34">
+        <f>F3+D4</f>
+        <v>34000</v>
+      </c>
+      <c r="G4" s="40">
+        <f>G3-E4</f>
+        <v>498107.56000000006</v>
+      </c>
+      <c r="H4" s="40">
+        <f>G4/F4</f>
+        <v>14.650222352941178</v>
+      </c>
+      <c r="I4" s="70"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="M4" s="33">
+        <v>7.63</v>
+      </c>
+      <c r="N4" s="34">
+        <v>39200</v>
+      </c>
+      <c r="O4" s="31">
+        <v>-299358.8</v>
+      </c>
+      <c r="P4" s="34">
+        <f>P3+N4</f>
+        <v>79200</v>
+      </c>
+      <c r="Q4" s="40">
+        <f>Q3-O4</f>
+        <v>599222.48</v>
+      </c>
+      <c r="R4" s="40">
+        <f>Q4/P4</f>
+        <v>7.5659404040404041</v>
+      </c>
+      <c r="S4" s="70"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="33">
+        <v>14.52</v>
+      </c>
+      <c r="D5" s="34">
+        <v>13700</v>
+      </c>
+      <c r="E5" s="31">
+        <v>-199091.36</v>
+      </c>
+      <c r="F5" s="34">
+        <f t="shared" ref="F5:F26" si="0">F4+D5</f>
+        <v>47700</v>
+      </c>
+      <c r="G5" s="40">
+        <f t="shared" ref="G5:G25" si="1">G4-E5</f>
+        <v>697198.92</v>
+      </c>
+      <c r="H5" s="40">
+        <f>G5/F5</f>
+        <v>14.616329559748429</v>
+      </c>
+      <c r="I5" s="70"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="M5" s="33">
+        <v>7.62</v>
+      </c>
+      <c r="N5" s="34">
+        <v>31200</v>
+      </c>
+      <c r="O5" s="31">
+        <v>-237952.92</v>
+      </c>
+      <c r="P5" s="34">
+        <f t="shared" ref="P5:P17" si="2">P4+N5</f>
+        <v>110400</v>
+      </c>
+      <c r="Q5" s="40">
+        <f t="shared" ref="Q5:Q11" si="3">Q4-O5</f>
+        <v>837175.4</v>
+      </c>
+      <c r="R5" s="40">
+        <f t="shared" ref="R5:R17" si="4">Q5/P5</f>
+        <v>7.5831105072463769</v>
+      </c>
+      <c r="S5" s="70"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A6" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="33">
+        <v>14.53</v>
+      </c>
+      <c r="D6" s="34">
+        <v>11600</v>
+      </c>
+      <c r="E6" s="31">
+        <v>-168689.8</v>
+      </c>
+      <c r="F6" s="34">
+        <f t="shared" si="0"/>
+        <v>59300</v>
+      </c>
+      <c r="G6" s="40">
+        <f t="shared" si="1"/>
+        <v>865888.72</v>
+      </c>
+      <c r="H6" s="40">
+        <f>G6/F6</f>
+        <v>14.601833389544687</v>
+      </c>
+      <c r="I6" s="70"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="M6" s="33">
+        <v>8.4</v>
+      </c>
+      <c r="N6" s="34">
+        <v>31600</v>
+      </c>
+      <c r="O6" s="31">
+        <v>-265671.31</v>
+      </c>
+      <c r="P6" s="34">
+        <f t="shared" si="2"/>
+        <v>142000</v>
+      </c>
+      <c r="Q6" s="40">
+        <f t="shared" si="3"/>
+        <v>1102846.71</v>
+      </c>
+      <c r="R6" s="40">
+        <f t="shared" si="4"/>
+        <v>7.7665261267605628</v>
+      </c>
+      <c r="S6" s="70"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="33">
+        <v>14.762</v>
+      </c>
+      <c r="D7" s="34">
+        <v>-19600</v>
+      </c>
+      <c r="E7" s="39">
+        <v>288804.43</v>
+      </c>
+      <c r="F7" s="34">
+        <f t="shared" si="0"/>
+        <v>39700</v>
+      </c>
+      <c r="G7" s="40">
+        <f t="shared" si="1"/>
+        <v>577084.29</v>
+      </c>
+      <c r="H7" s="40">
+        <f>G7/F7</f>
+        <v>14.536128211586902</v>
+      </c>
+      <c r="I7" s="70"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="M7" s="33">
+        <v>8.5239999999999991</v>
+      </c>
+      <c r="N7" s="34">
+        <v>-110400</v>
+      </c>
+      <c r="O7" s="39">
+        <v>939307.84</v>
+      </c>
+      <c r="P7" s="34">
+        <f t="shared" si="2"/>
+        <v>31600</v>
+      </c>
+      <c r="Q7" s="40">
+        <f t="shared" si="3"/>
+        <v>163538.87</v>
+      </c>
+      <c r="R7" s="40">
+        <f t="shared" si="4"/>
+        <v>5.1752806962025311</v>
+      </c>
+      <c r="S7" s="70"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="33">
+        <v>14.53</v>
+      </c>
+      <c r="D8" s="34">
+        <v>500</v>
+      </c>
+      <c r="E8" s="31">
+        <v>-7271.11</v>
+      </c>
+      <c r="F8" s="34">
+        <f t="shared" si="0"/>
+        <v>40200</v>
+      </c>
+      <c r="G8" s="40">
+        <f t="shared" si="1"/>
+        <v>584355.4</v>
+      </c>
+      <c r="H8" s="40">
+        <f>G8/F8</f>
+        <v>14.536203980099502</v>
+      </c>
+      <c r="I8" s="70"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="M8" s="33">
+        <v>8.6</v>
+      </c>
+      <c r="N8" s="34">
+        <v>12585</v>
+      </c>
+      <c r="O8" s="31">
+        <v>-108325.13</v>
+      </c>
+      <c r="P8" s="34">
+        <f t="shared" si="2"/>
+        <v>44185</v>
+      </c>
+      <c r="Q8" s="40">
+        <f t="shared" si="3"/>
+        <v>271864</v>
+      </c>
+      <c r="R8" s="40">
+        <f t="shared" si="4"/>
+        <v>6.1528573045151074</v>
+      </c>
+      <c r="S8" s="70"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="62" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="33">
+        <v>14.84</v>
+      </c>
+      <c r="D9" s="34">
+        <v>-800</v>
+      </c>
+      <c r="E9" s="39">
+        <v>11850.14</v>
+      </c>
+      <c r="F9" s="34">
+        <f t="shared" si="0"/>
+        <v>39400</v>
+      </c>
+      <c r="G9" s="40">
+        <f t="shared" si="1"/>
+        <v>572505.26</v>
+      </c>
+      <c r="H9" s="40">
+        <f>G9/F9</f>
+        <v>14.530590355329949</v>
+      </c>
+      <c r="I9" s="70"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="M9" s="33">
+        <v>8.7509999999999994</v>
+      </c>
+      <c r="N9" s="34">
+        <v>21025</v>
+      </c>
+      <c r="O9" s="31">
+        <v>-184156.57</v>
+      </c>
+      <c r="P9" s="34">
+        <f t="shared" si="2"/>
+        <v>65210</v>
+      </c>
+      <c r="Q9" s="40">
+        <f t="shared" si="3"/>
+        <v>456020.57</v>
+      </c>
+      <c r="R9" s="40">
+        <f t="shared" si="4"/>
+        <v>6.9931079589020086</v>
+      </c>
+      <c r="S9" s="70"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C10" s="33">
+        <v>15.282999999999999</v>
+      </c>
+      <c r="D10" s="34">
+        <v>-39400</v>
+      </c>
+      <c r="E10" s="39">
+        <v>601047.49</v>
+      </c>
+      <c r="F10" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="71">
+        <f>SUM(E3:E10)</f>
+        <v>28542.229999999981</v>
+      </c>
+      <c r="J10" s="5"/>
+      <c r="K10" s="62" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="M10" s="33">
+        <v>8.66</v>
+      </c>
+      <c r="N10" s="34">
+        <v>70349</v>
+      </c>
+      <c r="O10" s="31">
+        <v>-609751.93000000005</v>
+      </c>
+      <c r="P10" s="34">
+        <f t="shared" si="2"/>
+        <v>135559</v>
+      </c>
+      <c r="Q10" s="40">
+        <f t="shared" si="3"/>
+        <v>1065772.5</v>
+      </c>
+      <c r="R10" s="40">
+        <f t="shared" si="4"/>
+        <v>7.8620563739773823</v>
+      </c>
+      <c r="S10" s="70"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A11" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="33">
+        <v>14.99</v>
+      </c>
+      <c r="D11" s="34">
+        <v>20000</v>
+      </c>
+      <c r="E11" s="31">
+        <v>-300051.84000000003</v>
+      </c>
+      <c r="F11" s="34">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+      <c r="G11" s="40">
+        <f>-E11</f>
+        <v>300051.84000000003</v>
+      </c>
+      <c r="H11" s="40">
+        <f>G11/F11</f>
+        <v>15.002592000000002</v>
+      </c>
+      <c r="I11" s="71"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" s="33">
+        <v>8.65</v>
+      </c>
+      <c r="N11" s="34">
+        <v>4300</v>
+      </c>
+      <c r="O11" s="31">
+        <v>-37227.339999999997</v>
+      </c>
+      <c r="P11" s="34">
+        <f t="shared" si="2"/>
+        <v>139859</v>
+      </c>
+      <c r="Q11" s="40">
+        <f t="shared" si="3"/>
+        <v>1102999.8400000001</v>
+      </c>
+      <c r="R11" s="40">
+        <f t="shared" si="4"/>
+        <v>7.8865131310820189</v>
+      </c>
+      <c r="S11" s="70"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="33">
+        <v>14.63</v>
+      </c>
+      <c r="D12" s="34">
+        <v>7200</v>
+      </c>
+      <c r="E12" s="31">
+        <v>-105424.59</v>
+      </c>
+      <c r="F12" s="34">
+        <f t="shared" si="0"/>
+        <v>27200</v>
+      </c>
+      <c r="G12" s="40">
+        <f t="shared" si="1"/>
+        <v>405476.43000000005</v>
+      </c>
+      <c r="H12" s="40">
+        <f>G12/F12</f>
+        <v>14.907221691176472</v>
+      </c>
+      <c r="I12" s="71"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="M12" s="33">
+        <v>11.151999999999999</v>
+      </c>
+      <c r="N12" s="34">
+        <v>-139859</v>
+      </c>
+      <c r="O12" s="39">
+        <v>1556747.72</v>
+      </c>
+      <c r="P12" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="40"/>
+      <c r="S12" s="71">
+        <f>SUM(O3:O12)</f>
+        <v>453747.87999999989</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="33">
+        <v>14.69</v>
+      </c>
+      <c r="D13" s="34">
+        <v>34400</v>
+      </c>
+      <c r="E13" s="31">
+        <v>-505760.91</v>
+      </c>
+      <c r="F13" s="34">
+        <f t="shared" si="0"/>
+        <v>61600</v>
+      </c>
+      <c r="G13" s="40">
+        <f t="shared" si="1"/>
+        <v>911237.34000000008</v>
+      </c>
+      <c r="H13" s="40">
+        <f>G13/F13</f>
+        <v>14.792813961038963</v>
+      </c>
+      <c r="I13" s="71"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="M13" s="33">
+        <v>11.21</v>
+      </c>
+      <c r="N13" s="34">
+        <v>26600</v>
+      </c>
+      <c r="O13" s="31">
+        <v>-298440.51</v>
+      </c>
+      <c r="P13" s="34">
+        <f t="shared" si="2"/>
+        <v>26600</v>
+      </c>
+      <c r="Q13" s="40">
+        <f>-O13</f>
+        <v>298440.51</v>
+      </c>
+      <c r="R13" s="40">
+        <f t="shared" si="4"/>
+        <v>11.219568045112782</v>
+      </c>
+      <c r="S13" s="70"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="33">
+        <v>15.19</v>
+      </c>
+      <c r="D14" s="34">
+        <v>-20000</v>
+      </c>
+      <c r="E14" s="39">
+        <v>303241.15999999997</v>
+      </c>
+      <c r="F14" s="34">
+        <f t="shared" si="0"/>
+        <v>41600</v>
+      </c>
+      <c r="G14" s="40">
+        <f t="shared" si="1"/>
+        <v>607996.18000000017</v>
+      </c>
+      <c r="H14" s="40">
+        <f>G14/F14</f>
+        <v>14.615292788461543</v>
+      </c>
+      <c r="I14" s="71"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="M14" s="33">
+        <v>11.21</v>
+      </c>
+      <c r="N14" s="34">
+        <v>26700</v>
+      </c>
+      <c r="O14" s="31">
+        <v>-299562.46999999997</v>
+      </c>
+      <c r="P14" s="34">
+        <f t="shared" si="2"/>
+        <v>53300</v>
+      </c>
+      <c r="Q14" s="40">
+        <f>Q13-O14</f>
+        <v>598002.98</v>
+      </c>
+      <c r="R14" s="40">
+        <f t="shared" si="4"/>
+        <v>11.219568105065665</v>
+      </c>
+      <c r="S14" s="70"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="33">
+        <v>15.4</v>
+      </c>
+      <c r="D15" s="34">
+        <v>14200</v>
+      </c>
+      <c r="E15" s="31">
+        <v>-218863.46</v>
+      </c>
+      <c r="F15" s="34">
+        <f t="shared" si="0"/>
+        <v>55800</v>
+      </c>
+      <c r="G15" s="40">
+        <f t="shared" si="1"/>
+        <v>826859.64000000013</v>
+      </c>
+      <c r="H15" s="40">
+        <f>G15/F15</f>
+        <v>14.818273118279572</v>
+      </c>
+      <c r="I15" s="71"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="M15" s="33">
+        <v>11.1</v>
+      </c>
+      <c r="N15" s="34">
+        <v>86000</v>
+      </c>
+      <c r="O15" s="31">
+        <v>-955415.28</v>
+      </c>
+      <c r="P15" s="34">
+        <f t="shared" si="2"/>
+        <v>139300</v>
+      </c>
+      <c r="Q15" s="40">
+        <f t="shared" ref="Q15:Q16" si="5">Q14-O15</f>
+        <v>1553418.26</v>
+      </c>
+      <c r="R15" s="40">
+        <f t="shared" si="4"/>
+        <v>11.151602727925342</v>
+      </c>
+      <c r="S15" s="70"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="33">
+        <v>15.62</v>
+      </c>
+      <c r="D16" s="34">
+        <v>4300</v>
+      </c>
+      <c r="E16" s="31">
+        <v>-67222.31</v>
+      </c>
+      <c r="F16" s="34">
+        <f t="shared" si="0"/>
+        <v>60100</v>
+      </c>
+      <c r="G16" s="40">
+        <f t="shared" si="1"/>
+        <v>894081.95000000019</v>
+      </c>
+      <c r="H16" s="40">
+        <f>G16/F16</f>
+        <v>14.876571547420967</v>
+      </c>
+      <c r="I16" s="71"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="M16" s="33">
+        <v>10.91</v>
+      </c>
+      <c r="N16" s="34">
+        <v>300</v>
+      </c>
+      <c r="O16" s="31">
+        <v>-3278.18</v>
+      </c>
+      <c r="P16" s="34">
+        <f t="shared" si="2"/>
+        <v>139600</v>
+      </c>
+      <c r="Q16" s="40">
+        <f t="shared" si="5"/>
+        <v>1556696.44</v>
+      </c>
+      <c r="R16" s="40">
+        <f t="shared" si="4"/>
+        <v>11.151120630372493</v>
+      </c>
+      <c r="S16" s="70"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A17" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="33">
+        <v>15.87</v>
+      </c>
+      <c r="D17" s="34">
+        <v>200</v>
+      </c>
+      <c r="E17" s="31">
+        <v>-3179.12</v>
+      </c>
+      <c r="F17" s="34">
+        <f t="shared" si="0"/>
+        <v>60300</v>
+      </c>
+      <c r="G17" s="40">
+        <f t="shared" si="1"/>
+        <v>897261.07000000018</v>
+      </c>
+      <c r="H17" s="40">
+        <f>G17/F17</f>
+        <v>14.879951409618577</v>
+      </c>
+      <c r="I17" s="71"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="M17" s="33">
+        <v>10.531000000000001</v>
+      </c>
+      <c r="N17" s="34">
+        <v>-139600</v>
+      </c>
+      <c r="O17" s="39">
+        <v>1467395</v>
+      </c>
+      <c r="P17" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="40"/>
+      <c r="S17" s="72">
+        <f>SUM(O13:O17)</f>
+        <v>-89301.439999999944</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A18" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C18" s="33">
+        <v>18.260000000000002</v>
+      </c>
+      <c r="D18" s="34">
+        <v>-60300</v>
+      </c>
+      <c r="E18" s="39">
+        <v>1099059.8999999999</v>
+      </c>
+      <c r="F18" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="71">
+        <f>SUM(E11:E18)</f>
+        <v>201798.82999999973</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="67"/>
+      <c r="N18" s="67"/>
+      <c r="O18" s="68">
+        <f>SUM(O3:O17)</f>
+        <v>364446.43999999994</v>
+      </c>
+      <c r="P18" s="67"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="68"/>
+      <c r="S18" s="73">
+        <f>S12+S17</f>
+        <v>364446.43999999994</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A19" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="33">
+        <v>18.78</v>
+      </c>
+      <c r="D19" s="34">
+        <v>600</v>
+      </c>
+      <c r="E19" s="31">
+        <v>-11277.37</v>
+      </c>
+      <c r="F19" s="34">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="G19" s="40">
+        <f t="shared" si="1"/>
+        <v>11277.37</v>
+      </c>
+      <c r="H19" s="40">
+        <f>G19/F19</f>
+        <v>18.795616666666668</v>
+      </c>
+      <c r="I19" s="71"/>
+      <c r="J19" s="5"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A20" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="33">
+        <v>19.015999999999998</v>
+      </c>
+      <c r="D20" s="34">
+        <v>32920</v>
+      </c>
+      <c r="E20" s="31">
+        <v>-626515.94999999995</v>
+      </c>
+      <c r="F20" s="34">
+        <f t="shared" si="0"/>
+        <v>33520</v>
+      </c>
+      <c r="G20" s="40">
+        <f t="shared" si="1"/>
+        <v>637793.31999999995</v>
+      </c>
+      <c r="H20" s="40">
+        <f>G20/F20</f>
+        <v>19.027247016706443</v>
+      </c>
+      <c r="I20" s="71"/>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A21" s="62" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="33">
+        <v>19.02</v>
+      </c>
+      <c r="D21" s="34">
+        <v>21100</v>
+      </c>
+      <c r="E21" s="31">
+        <v>-401655.72</v>
+      </c>
+      <c r="F21" s="34">
+        <f t="shared" si="0"/>
+        <v>54620</v>
+      </c>
+      <c r="G21" s="40">
+        <f t="shared" si="1"/>
+        <v>1039449.0399999999</v>
+      </c>
+      <c r="H21" s="40">
+        <f>G21/F21</f>
+        <v>19.030557305016476</v>
+      </c>
+      <c r="I21" s="71"/>
+      <c r="J21" s="5"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A22" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="33">
+        <v>17.8</v>
+      </c>
+      <c r="D22" s="34">
+        <v>100</v>
+      </c>
+      <c r="E22" s="31">
+        <v>-1785.06</v>
+      </c>
+      <c r="F22" s="34">
+        <f t="shared" si="0"/>
+        <v>54720</v>
+      </c>
+      <c r="G22" s="40">
+        <f t="shared" si="1"/>
+        <v>1041234.1</v>
+      </c>
+      <c r="H22" s="40">
+        <f>G22/F22</f>
+        <v>19.028400950292397</v>
+      </c>
+      <c r="I22" s="71"/>
+      <c r="J22" s="5"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A23" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C23" s="33">
+        <v>19.222000000000001</v>
+      </c>
+      <c r="D23" s="34">
+        <v>-54620</v>
+      </c>
+      <c r="E23" s="39">
+        <v>1047958.84</v>
+      </c>
+      <c r="F23" s="34">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G23" s="40">
+        <f t="shared" si="1"/>
+        <v>-6724.7399999999907</v>
+      </c>
+      <c r="H23" s="40">
+        <f>G23/F23</f>
+        <v>-67.247399999999914</v>
+      </c>
+      <c r="I23" s="71"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A24" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="33">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="D24" s="34">
+        <v>12079</v>
+      </c>
+      <c r="E24" s="31">
+        <v>-227878.55</v>
+      </c>
+      <c r="F24" s="34">
+        <f t="shared" si="0"/>
+        <v>12179</v>
+      </c>
+      <c r="G24" s="40">
+        <f t="shared" si="1"/>
+        <v>221153.81</v>
+      </c>
+      <c r="H24" s="40">
+        <f>G24/F24</f>
+        <v>18.158618113145579</v>
+      </c>
+      <c r="I24" s="71"/>
+      <c r="J24" s="5"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A25" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="33">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="D25" s="34">
+        <v>16300</v>
+      </c>
+      <c r="E25" s="31">
+        <v>-300169.71999999997</v>
+      </c>
+      <c r="F25" s="34">
+        <f t="shared" si="0"/>
+        <v>28479</v>
+      </c>
+      <c r="G25" s="40">
+        <f t="shared" si="1"/>
+        <v>521323.52999999997</v>
+      </c>
+      <c r="H25" s="40">
+        <f>G25/F25</f>
+        <v>18.3055419782998</v>
+      </c>
+      <c r="I25" s="71"/>
+      <c r="J25" s="5"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A26" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="33">
+        <v>18.48</v>
+      </c>
+      <c r="D26" s="34">
+        <v>-28479</v>
+      </c>
+      <c r="E26" s="39">
+        <v>525328.41</v>
+      </c>
+      <c r="F26" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="71">
+        <f>SUM(E19:E26)</f>
+        <v>4004.8800000000629</v>
+      </c>
+      <c r="J26" s="5"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A27" s="66"/>
+      <c r="B27" s="67"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="68">
+        <f>SUM(E3:E26)</f>
+        <v>234345.93999999977</v>
+      </c>
+      <c r="F27" s="74"/>
+      <c r="G27" s="68"/>
+      <c r="H27" s="68"/>
+      <c r="I27" s="73">
+        <f>SUM(E3:E26)</f>
+        <v>234345.93999999977</v>
+      </c>
+      <c r="J27" s="5"/>
+    </row>
+    <row r="39" spans="14:15" x14ac:dyDescent="0.2">
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="K1:S1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+    <sheetView topLeftCell="AJ1" workbookViewId="0">
       <selection activeCell="AV20" sqref="AV20"/>
     </sheetView>
   </sheetViews>
@@ -9665,76 +11102,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="54" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="54" t="s">
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="54" t="s">
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="58"/>
+      <c r="P1" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="54" t="s">
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="58"/>
+      <c r="U1" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="55"/>
-      <c r="Z1" s="52" t="s">
+      <c r="V1" s="55"/>
+      <c r="W1" s="55"/>
+      <c r="X1" s="55"/>
+      <c r="Y1" s="58"/>
+      <c r="Z1" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="AA1" s="52"/>
-      <c r="AB1" s="52"/>
-      <c r="AC1" s="52"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="54" t="s">
+      <c r="AA1" s="55"/>
+      <c r="AB1" s="55"/>
+      <c r="AC1" s="55"/>
+      <c r="AD1" s="58"/>
+      <c r="AE1" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="AF1" s="52"/>
-      <c r="AG1" s="52"/>
-      <c r="AH1" s="52"/>
-      <c r="AI1" s="55"/>
-      <c r="AJ1" s="54" t="s">
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="58"/>
+      <c r="AJ1" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="AK1" s="52"/>
-      <c r="AL1" s="52"/>
-      <c r="AM1" s="52"/>
-      <c r="AN1" s="55"/>
-      <c r="AO1" s="54" t="s">
+      <c r="AK1" s="55"/>
+      <c r="AL1" s="55"/>
+      <c r="AM1" s="55"/>
+      <c r="AN1" s="58"/>
+      <c r="AO1" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="AP1" s="52"/>
-      <c r="AQ1" s="52"/>
-      <c r="AR1" s="52"/>
-      <c r="AS1" s="55"/>
-      <c r="AT1" s="54" t="s">
+      <c r="AP1" s="55"/>
+      <c r="AQ1" s="55"/>
+      <c r="AR1" s="55"/>
+      <c r="AS1" s="58"/>
+      <c r="AT1" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="AU1" s="52"/>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="55"/>
+      <c r="AU1" s="55"/>
+      <c r="AV1" s="55"/>
+      <c r="AW1" s="55"/>
+      <c r="AX1" s="58"/>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="s">
@@ -10340,7 +11777,7 @@
       <c r="AW5" s="45">
         <v>6.05</v>
       </c>
-      <c r="AX5" s="57">
+      <c r="AX5" s="52">
         <v>6.05</v>
       </c>
     </row>
@@ -10492,7 +11929,7 @@
       <c r="AW6" s="45">
         <v>6.66</v>
       </c>
-      <c r="AX6" s="57">
+      <c r="AX6" s="52">
         <v>6.66</v>
       </c>
     </row>
